--- a/PhDFormulationsDataset_2022.xlsx
+++ b/PhDFormulationsDataset_2022.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac2349/My Drive/PhD Computational Work/Opentrons/FormulationsProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac2349/GitHub/formulations-prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58D224-8DE4-D74F-8425-008991BD9A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A01AC5-7FF7-9D45-B3F7-572B13EC0AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{44BDF354-F4F0-754D-8169-479863DA8206}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="ProtocolNotes" sheetId="2" r:id="rId2"/>
+    <sheet name="Dataset" sheetId="3" r:id="rId1"/>
+    <sheet name="Old_Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Old_ProtocolNotes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Sample</t>
   </si>
@@ -145,6 +146,66 @@
   <si>
     <t xml:space="preserve">Sarfaraz titrated samples 13-36, however, analysis was not conducted on these samples as it's preferable to move towards sample testing of formulations prepared in the cosmetic jars. </t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Texapon SB 3 KC</t>
+  </si>
+  <si>
+    <t>Plantapon ACG 50</t>
+  </si>
+  <si>
+    <t>Plantapon LC 7</t>
+  </si>
+  <si>
+    <t>Plantacare 818</t>
+  </si>
+  <si>
+    <t>Plantacare 2000</t>
+  </si>
+  <si>
+    <t>Dehyton MC</t>
+  </si>
+  <si>
+    <t>Dehyton PK 45</t>
+  </si>
+  <si>
+    <t>Dehyton ML</t>
+  </si>
+  <si>
+    <t>Dehyton AB 30</t>
+  </si>
+  <si>
+    <t>Plantapon Amino SCG-L</t>
+  </si>
+  <si>
+    <t>Plantapon Amino KG-L</t>
+  </si>
+  <si>
+    <t>Dehyquart A-CA</t>
+  </si>
+  <si>
+    <t>Luviquat Excellence</t>
+  </si>
+  <si>
+    <t>Dehyquart CC6</t>
+  </si>
+  <si>
+    <t>Dehyquart CC7 Benz</t>
+  </si>
+  <si>
+    <t>Salcare Super 7</t>
+  </si>
+  <si>
+    <t>Arlypon F</t>
+  </si>
+  <si>
+    <t>Arlypon TT</t>
+  </si>
+  <si>
+    <t>Stability_Test1</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +245,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +304,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +619,2694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A413F-453F-F64F-BD2C-3CD20486E015}">
+  <dimension ref="A1:T43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2.9909667685443999</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>4.8610762935232996</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>2.6108018004887099</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>3.6606613480333499</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3.1771454790077298</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2.3263534930168102</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>3.89432265629382</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <v>4.6536939836971403</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>6.3046873305022402</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>4.74141054748271</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2.21013710797288</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>3.3477532631285598</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7.2791726097313498</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>7.9197081680020904</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>3.1810547738582402</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>5.3872203589130603</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>5.2904005779841103</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3.6845602256176799</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>2.7275885766513102</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <v>5.0602983781307502</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5.6231091905540396</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.3585873930193402</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>3.4330275704878401</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>6.0346284135200898</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5.6877137279585197</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6.8098897389847997</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>3.8985506689370801</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>2.89137242480653</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7.1991342279821398</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4.3628703974944099</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>4.2817632037452897</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>5.11522669779227</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3.9464356754051102</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>7.4487637163209799</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2.9524168644027502</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <v>2.8327653272114302</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6.0073773358913201</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4.4299607661326501</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>3.01119665879729</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>2.3040916187487599</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5.2664561420517</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>7.9917278796993498</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>5.0283114173002597</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <v>4.0713494865500799</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.4728218956336399</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>7.3743509009825097</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>5.5207076886097104</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>5.0179333322503599</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3.4344156952490801</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>7.4427337512179497</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>4.3511347318084397</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>2.5045738912950899</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>5.08719518932927</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4.93730904814125</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>5.1237981791062701</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>4.9234123198193496</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6.2625649801956804</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>6.1805787194140196</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>2.3120372487019298</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
+        <v>5.6649542841360097</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4.0239422300508902</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>3.3532851917090301</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>4.3607414883410103</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>2.7551846165797702</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>6.8474318414694304</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3.4562851410818198</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>5.8445712649469801</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <v>4.41658366828708</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4.3093055742349602</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>2.9749320168681299</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>5.1656356069787996</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>5.8866516668439903</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1.7267297715318699</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2.6765828795978699</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>1.8821303931789799</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>0</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0</v>
+      </c>
+      <c r="S20" s="11">
+        <v>3.3684886579972702</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3.85515835738265</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>5.4426350873408298</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>2.49786077373032</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>3.5055947863566699</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2.29896361138091</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>5.7322003489916096</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>3.3183130871697899</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0</v>
+      </c>
+      <c r="S22" s="11">
+        <v>3.09079614846353</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4.3809926669321602</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>6.7636899450806602</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>2.40932305334597</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>4.9635398600928902</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1.96029036081936</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5.0110473955915804</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>5.0435309464681604</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0</v>
+      </c>
+      <c r="R24" s="11">
+        <v>0</v>
+      </c>
+      <c r="S24" s="11">
+        <v>3.8097689103471302</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5.8613711737763499</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5.7145165739961401</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>4.3514299196608501</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>4.7850945096156199</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>7.0889496795657196</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <v>3.65790206762391</v>
+      </c>
+      <c r="N26" s="11">
+        <v>3.7002482326845798</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
+      <c r="R26" s="11">
+        <v>0</v>
+      </c>
+      <c r="S26" s="11">
+        <v>3.4481877263710699</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>6.2308027705703797</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>6.60484780261097</v>
+      </c>
+      <c r="N27" s="11">
+        <v>5.5097817548606001</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>3.7650585461977299</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>3.8236623067901601</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>6.4828681808510504</v>
+      </c>
+      <c r="N28" s="11">
+        <v>3.4901457177738902</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
+      <c r="R28" s="11">
+        <v>0</v>
+      </c>
+      <c r="S28" s="11">
+        <v>4.3642319454934304</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2.4147426242285501</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>5.7912138151967598</v>
+      </c>
+      <c r="N29" s="11">
+        <v>4.7155963392378899</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>5.6820392616968798</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>5.099661676907</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>2.13590682597196</v>
+      </c>
+      <c r="N30" s="11">
+        <v>3.7617738322938301</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <v>2.6072793668762202</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>6.5021522868208503</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>6.8993739606500499</v>
+      </c>
+      <c r="N31" s="11">
+        <v>4.5424180500080098</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <v>4.3387305021747098</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2.8780507562375801</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>4.3564047886986597</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>3.2118401046309</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0</v>
+      </c>
+      <c r="S32" s="11">
+        <v>4.7396070617786004</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <v>6.01796659079805</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>2.6506541264526802</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>4.8687362253245201</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0</v>
+      </c>
+      <c r="S33" s="11">
+        <v>3.0580694829258799</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <v>5.7773060363205504</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>5.2051597373191099</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>5.0350588791613298</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0</v>
+      </c>
+      <c r="S34" s="11">
+        <v>3.4191619580733699</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>7.6813950407808802</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>6.2998561892953697</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>5.4387116068148504</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0</v>
+      </c>
+      <c r="R35" s="11">
+        <v>0</v>
+      </c>
+      <c r="S35" s="11">
+        <v>2.6001419768425702</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <v>4.4431511451914503</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>4.0811676115561202</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>5.7789490763780504</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>3.0935821013122302</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <v>7.1081031876481999</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>2.6643097701973599</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>3.2320731990863298</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
+        <v>3.8686564375374402</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1.07124524254593</v>
+      </c>
+      <c r="F38" s="11">
+        <v>21.532622315343801</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>3.5502292747658499</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>4.0418755000118098</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>15.6026335883302</v>
+      </c>
+      <c r="F39" s="11">
+        <v>7.9709863538826102</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0.97584875072101696</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0</v>
+      </c>
+      <c r="R39" s="11">
+        <v>5.3338934902384798</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>20.248819028477801</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.73894352662820695</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>3.8529575317708802</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>7.2814886687654701</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>9.0796992503468399</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>1.5443387638610999</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0</v>
+      </c>
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <v>3.98363449989417</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>0</v>
+      </c>
+      <c r="R41" s="11">
+        <v>3.31653078796408</v>
+      </c>
+      <c r="S41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2.7421128073743102</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>17.093690227787899</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>4.9943153088856302</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>1.1969540032189601</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3.6862711651498499</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>19.466290099033699</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <v>2.7163303673211399</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>0</v>
+      </c>
+      <c r="R43" s="11">
+        <v>5.1994780364429101</v>
+      </c>
+      <c r="S43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A890F31-384E-E449-90B0-8F080039E77E}">
   <dimension ref="A1:AF961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="75" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -27267,7 +30027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C50370-3C38-7F48-A217-77DA3F9FED8F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
